--- a/Conmon Source.xlsx
+++ b/Conmon Source.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="course_link_free" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Linux-VM" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,19 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>https://freecoursesite.us/build-olx-clone-python-django-course/</t>
   </si>
   <si>
     <t>Fre blog page</t>
   </si>
+  <si>
+    <t>https://www.vm-help.com/about</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +42,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,9 +85,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -394,12 +413,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
